--- a/Test Data Driven/AI-Generated/TestCase-00000.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00000.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>nmartin</t>
+          <t>yangmark</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>nicole77</t>
+          <t>denise36</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>johnny04</t>
+          <t>billyharrison</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00000.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00000.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>yangmark</t>
+          <t>ypearson</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>denise36</t>
+          <t>palmernicole</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>billyharrison</t>
+          <t>juanburgess</t>
         </is>
       </c>
     </row>
